--- a/Batch/19/Day_5.xlsx
+++ b/Batch/19/Day_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\Excel\Batch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2981BF5D-FBDC-4329-ABEF-FE513EE2A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07916072-11E1-4681-8426-4B2BFA9FCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="15" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="11" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3007,6 +3007,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3016,14 +3021,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -3241,8 +3241,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>94184</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -3261,7 +3261,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -3306,8 +3306,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>153944</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Ink 26">
@@ -3326,7 +3326,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Ink 26">
@@ -3371,8 +3371,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -3391,7 +3391,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -3436,8 +3436,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>93382</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
@@ -3456,7 +3456,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -3501,8 +3501,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>173539</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Ink 40">
@@ -3521,7 +3521,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Ink 40">
@@ -3566,8 +3566,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>37542</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Ink 43">
@@ -3586,7 +3586,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Ink 43">
@@ -3631,8 +3631,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>46419</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Ink 44">
@@ -3651,7 +3651,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Ink 44">
@@ -3696,8 +3696,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>113019</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Ink 45">
@@ -3716,7 +3716,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Ink 45">
@@ -3761,8 +3761,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>40381</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Ink 46">
@@ -3781,7 +3781,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Ink 46">
@@ -3964,7 +3964,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>430671</xdr:colOff>
+      <xdr:colOff>430672</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>170009</xdr:rowOff>
     </xdr:to>
@@ -4139,8 +4139,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>55151</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45858</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83723</xdr:rowOff>
     </xdr:to>
@@ -4183,8 +4183,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228198</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130625</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>121840</xdr:rowOff>
     </xdr:to>
@@ -4237,8 +4237,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -4257,7 +4257,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -4302,8 +4302,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>11602</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -4322,7 +4322,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -4367,8 +4367,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -4387,7 +4387,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -4432,8 +4432,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28162</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Ink 13">
@@ -4452,7 +4452,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Ink 13">
@@ -4497,8 +4497,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -4517,7 +4517,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -4562,8 +4562,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -4582,7 +4582,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -4627,8 +4627,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -4647,7 +4647,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -4692,8 +4692,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>182684</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Ink 50">
@@ -4712,7 +4712,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Ink 50">
@@ -4757,8 +4757,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>103484</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Ink 53">
@@ -4777,7 +4777,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Ink 53">
@@ -4822,8 +4822,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>67042</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Ink 63">
@@ -4842,7 +4842,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Ink 63">
@@ -4887,8 +4887,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>86482</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -4907,7 +4907,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -4957,8 +4957,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>30231</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -4977,7 +4977,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -5022,8 +5022,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -5042,7 +5042,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -5087,8 +5087,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>172745</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Ink 53">
@@ -5107,7 +5107,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Ink 53">
@@ -5381,7 +5381,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">141 191 9893,'0'0'7053,"-2"-6"-2072,-5-22-4847,5 26-142,1 0 1,0 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,0 0 0,-1 1 1,1-1-1,0 0 1,-1 1-1,-2-1 0,0 1-5,1 1 0,-1-1-1,0 1 1,1 1-1,-1-1 1,1 0 0,-1 1-1,1 0 1,0 0-1,-7 4 1,9-3-27,-1-1 0,1 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,1 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 6 0,-1-1-82,2 1 1,-1 0-1,1-1 1,1 1-1,-1 0 0,3 9 1,-2-16 87,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,3 1 0,46-1-150,-5 0 264,-43 0-82,0 0 0,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 0,2 2 1,-1 1 8,0-1 0,0 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,-1 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-2-1 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,-1 1 0,-4 3 1,3-1 1,-1-1 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,-1 0-1,0-1 1,1 1 0,-1-1-1,0 0 1,0 0-1,0-1 1,-8 1 0,13-2-35,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0-2 0,0-32-1130,2 20 969,-1 15 184,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,9 6-160,7 15-66,-16-18 232,1 0 0,0 1 0,0-1 0,0 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 0 0,-1 1 0,1-2 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 0,0 0 0,0-1 0,4-3 0,-3 1 15,-1 1 0,1-1 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0-1 0,0 1 0,-1-1 0,1 0-1,-1 0 1,-1-6 0,1 12 213,0 63 78,0-60-305,1 1 1,-1-1 0,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,1-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,5 4 0,-7-6-25,1 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0 0,1-1-1,-1 1 1,0 0-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,1-2-1,3-5-93,0 0-1,0 0 1,-1 0-1,0-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,-2 0 1,1 0-1,-1-1 1,0-16 653,-1 66-309,0-29-201,0-3 34,-1-1-1,2 1 0,-1 0 1,1 0-1,0 0 0,1-1 1,2 9-1,-3-15-72,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,4-2 0,-3 2-65,0-1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0-4 1,1-4-153,0 0 0,-1 0 1,-1-21-1,0 26 276,1 2 6,-1 6 33,3 15 151,0 27 179,-3-44-385,2-3-28,0 0 1,0 0 0,0 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 0 0,0 1 0,0-6-1,6-8-89,-4 10 7,-2 4 51,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 0,0-1 1,0 0-1,0 1 0,0 0 0,0-1 1,4-1-1,-5 4 39,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,-1 0-1,1-1 1,0 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 2-1,5 29 468,-5-30-416,7 33 1025,-7-35-1076,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,10-18 76,-7 10-189,0 0 0,0 0 0,0 0 0,1 1 1,0 0-1,1 0 0,0 0 0,0 0 0,0 1 0,1 0 0,0 0 1,0 1-1,0 0 0,1 0 0,-1 0 0,1 1 0,15-5 0,-22 9 108,-1 0-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,3 21 301,-3-19-213,1 15-6,-2-9 182,2 1-1,0-1 1,0 1-1,0-1 1,5 13 0,-6-20-331,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,1-1 0,9-7-4900</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="620.32">1161 0 192,'0'0'17811,"-7"5"-17776,-3 2 36,0 1 1,1 0-1,0 1 1,0 0-1,1 1 1,0-1-1,0 2 1,1-1-1,1 1 1,0 0 0,0 0-1,1 1 1,0 0-1,1 0 1,-4 20-1,2-4 126,1 1-1,2 0 0,0 0 0,2 0 1,1 0-1,5 31 0,-5-55-211,1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,6 3 0,-4-3-394,1 0 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-2 0,0 1 0,-1-1 1,1 0-1,0 0 0,9 0 0,16-1-4105</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="620.31">1161 0 192,'0'0'17811,"-7"5"-17776,-3 2 36,0 1 1,1 0-1,0 1 1,0 0-1,1 1 1,0-1-1,0 2 1,1-1-1,1 1 1,0 0 0,0 0-1,1 1 1,0 0-1,1 0 1,-4 20-1,2-4 126,1 1-1,2 0 0,0 0 0,2 0 1,1 0-1,5 31 0,-5-55-211,1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,6 3 0,-4-3-394,1 0 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-2 0,0 1 0,-1-1 1,1 0-1,0 0 0,9 0 0,16-1-4105</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3554.48">1386 390 4066,'0'0'11272,"2"-36"-9051,-1 26 1459,9-145-5566,-12 190 1898,1-23-3,1 1 0,0-1 0,0 1 0,1-1 1,3 13-1,-4-23-22,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,2-1 0,0 0-92,-1-1 1,1 1 0,0 0 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,2-3 0,-1-1 1,1-1 64,-1 0 1,1 0 0,-1 0 0,-1 0-1,0-1 1,0 1 0,0-12 909,2 28-875,-2 1 43,1-1 0,-1 1-1,0 0 1,-1-1 0,0 11-1,9 37 465,-10-55-498,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,1 0 0,-1-1 1,0 1-1,1-1 0,-1 0 1,28-28 166,-22 23-88,-2 1-90,-3 3-23,1-1 1,-1 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0 0 1,4-2 0,16 59 443,-20-52-574,16 20 824,-1-17-3637</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3773.42">1573 93 11749,'0'0'3250,"10"-7"-8308,-4 7 367</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4578.33">1841 238 7700,'0'0'9348,"-3"-2"-9068,2 1-268,0 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1 0-1,-2 1 1,2 0 10,-1 0 0,1 0-1,-1 0 1,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,1 0 1,-3 5 0,2-2 9,-1 0-1,1 1 1,0-1 0,1 1-1,0-1 1,0 1 0,0 0-1,1 0 1,0-1-1,0 1 1,0 0 0,2 7-1,-1-13-31,-1 0-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 1 0,-1-1 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,0-1 1,0 0-1,0 1 0,2-2 1,1-1-7,1 0 0,-1 0 0,0 0 0,1 0 0,-2-1 0,1 1 1,0-1-1,-1 0 0,5-7 0,-1-3-129,-1 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,-2 0 1,1 0-1,-2 0 1,0-1-1,-1 1 1,0 0-1,-3-17 1,-1 78 1631,3-36-1464,1 0-1,1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,5 10 1,-6-17-50,0 1-1,1-1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,5-2-1,-3 0-406,1 0-1,-1 0 1,0 0-1,0-1 0,-1 1 1,1-1-1,-1-1 1,1 1-1,-1 0 0,-1-1 1,1 0-1,-1 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 0,-1 1 1,-1-1-1,1 0 1,1-11-1,-3 14 37,0-29-971,0 31 1465,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1 0 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,0 1-1,-1 3 132,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,1 8-1,-1-13-225,0 4-104,0 1 211,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0-1,2 7 1,-3-11-229,1 1-1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 0 0,11-8-4645</inkml:trace>
@@ -5465,7 +5465,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 36 4978,'-3'-1'12713,"18"5"-12447,-3 0-223,1 0 0,0-1 0,0 0 0,0-1 0,0 0 0,0-1 0,0-1 0,21-1 0,-23-2-2331,-6-1-2093,-4 1-43</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="305.29">144 2 6307,'0'0'8991,"-1"-2"-7881,6 4-1012,0 2-63,1-1-1,-1 1 1,0 0-1,0 0 1,0 1-1,-1-1 1,0 1-1,1 0 1,-2 0-1,1 0 0,-1 1 1,1 0-1,-2-1 1,1 1-1,-1 0 1,1 0-1,-2 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,0-1-1,-2 11 1,1-14-14,0 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0 0,-3 2-1,-20 11-1448,4-5-4002,6-6-3111</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="305.28">144 2 6307,'0'0'8991,"-1"-2"-7881,6 4-1012,0 2-63,1-1-1,-1 1 1,0 0-1,0 0 1,0 1-1,-1-1 1,0 1-1,1 0 1,-2 0-1,1 0 0,-1 1 1,1 0-1,-2-1 1,1 1-1,-1 0 1,1 0-1,-2 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,0-1-1,-2 11 1,1-14-14,0 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0 0,-3 2-1,-20 11-1448,4-5-4002,6-6-3111</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5566,7 +5566,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1438.39">955 237 9172,'0'0'6291,"7"14"-5712,-4-8-551,3 4 154,-1 1 1,0 0-1,0 0 1,-1 0-1,-1 1 1,0-1-1,-1 1 1,2 19-1,-5-17 2505,-3-22-1302,0-27-1692,5 32 152,-1 0 1,1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,5-3 0,45-22-6982,-35 20 2214</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1977.23">1136 235 9732,'0'0'7495,"26"9"-7223,23-12-252,-47 3-78,-1-1 1,1 1 0,-1 0 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1-1-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1 0,1-3-1,-1 3 108,-1 1-1,1-1 0,0 1 1,0 0-1,0-1 0,-1 1 1,1 0-1,0-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 0,0 0 1,-1 0-1,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 1,-19 15 767,18-14-799,1 1 0,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,3 4 0,-2-5-79,1 1-1,0 0 0,0-1 1,0 1-1,0-1 0,0 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0-1 1,1 1-1,-1 0 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,5-1 1,-1 1-124,0-1 0,0 0 0,0-1-1,0 1 1,0-1 0,-1 0 0,1 0 0,-1-1 0,9-5 0,-7 3-557,-1 0-1,0 0 1,0-1-1,0 0 1,-1 0-1,0 0 1,0-1 0,-1 1-1,0-1 1,6-13-1,9-30-1642,-9-3 3671,-5-14 9428,-10 144-10245,2-50-143,1 0 1,2 29-1,0-49-598,1 1 0,0-1 0,1 1-1,-1-1 1,1 0 0,1 1 0,0-1 0,0 0 0,0-1 0,1 1 0,8 12 0,-5-13-3359,-1-5-2401</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2151.11">1376 237 14231,'0'0'6755,"-3"-12"-8196,22 8-144,12-1 817,3 0-913,3 1-1696,-5 1-3667</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2443.2">1731 0 3554,'0'0'14270,"-2"4"-13944,-12 18 16,0 1 1,1 0-1,1 1 1,2 0-1,0 1 1,2 1-1,0-1 1,2 1-1,1 0 1,1 0-1,1 1 1,1 40-1,3-62-429,-1 0 0,1-1 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1-1-1,0 1 1,1-1 0,-1 0 0,0 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0-1 0,0 0-1,6 2 1,2 0-770,0-1 0,0 0-1,1-1 1,-1 0 0,0-1-1,1-1 1,-1 0-1,16-1 1,20-7-6640</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2443.19">1731 0 3554,'0'0'14270,"-2"4"-13944,-12 18 16,0 1 1,1 0-1,1 1 1,2 0-1,0 1 1,2 1-1,0-1 1,2 1-1,1 0 1,1 0-1,1 1 1,1 40-1,3-62-429,-1 0 0,1-1 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1-1-1,0 1 1,1-1 0,-1 0 0,0 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0-1 0,0 0-1,6 2 1,2 0-770,0-1 0,0 0-1,1-1 1,-1 0 0,0-1-1,1-1 1,-1 0-1,16-1 1,20-7-6640</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5604,7 +5604,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3979.39">1818 337 5314,'0'0'10741,"31"-8"-10485,0 6-95,9-1-161,5-2-145,4 5-1007,-4-3-1057,-5 1-3506</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4267.6">2214 370 12182,'0'0'7347,"-22"2"-6387,36-2-960,3 0-48,15 0-640,3-5-1121,1-2-928,-5-3-3282</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4643.59">2460 217 12950,'0'0'5136,"0"0"-5128,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,7 5-13,-1 1 0,0 0 0,0 1 0,0 0 0,-1 0 0,0 0 0,0 1 0,-1 0 0,6 10 0,-8-13 7,0 1 0,0-1 0,0 0 0,-1 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,-1 7 0,1-11 4,0 0 1,-1 0-1,1 1 1,-1-1-1,0-1 1,0 1-1,1 0 1,-1 0-1,0-1 1,-1 1-1,1-1 1,0 1 0,0-1-1,-1 0 1,1 0-1,-1 0 1,-4 1-1,-50 11 41,44-11-67,9-1-52,-89 15-811,32-12-4592,41-4-2363</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5782.43">2883 172 3057,'0'0'10653,"0"-14"-4071,0 187-6417,0-136-3899,0 0-4142</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5782.42">2883 172 3057,'0'0'10653,"0"-14"-4071,0 187-6417,0-136-3899,0 0-4142</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6298.68">2901 268 8980,'0'0'8455,"27"-2"-7911,-12 2-684,-1 0-1,0 0 1,1-2 0,-1 0 0,0 0 0,0-1-1,0-1 1,17-6 0,-30 9 68,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,-8-21-67,1 17 3971,4 16-2020,0 38-1708,-2 13-57,1-41-333,0 1-1,-2 25 1,5-9-9388</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6890.24">3253 253 9316,'0'0'10432,"1"-8"-7967,115 8-3714,-115 7 1151,1 0-1,-1 1 1,-1-1-1,1 0 1,-1 1-1,-1 8 1,0-6 147,1 0-183,-1 1 0,0 0 0,0 0 0,-1-1 0,-4 11 0,-15 26-6561,13-37 1778</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7152.83">3307 441 5410,'0'0'11910,"4"0"-11686,14 0-176,13-2-48,5-1-160,-1-2-1041,10 0-1104,-5 0-3729</inkml:trace>
@@ -5637,7 +5637,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 13926,'0'0'6617,"9"34"-5921,-8 38-603,1-29-537,-6 70 0,-4-68-7325,8-39 1769</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="604.62">50 85 10709,'0'0'6899,"0"-7"-6187,0 2-614,-1 3-56,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,4-1 0,4-2-41,-1 0 0,1 1 0,1 0 0,-1 0 0,0 1 0,1 0 0,-1 1 0,18 0 0,-26 1-6,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 2 0,1 36 182,0-31-169,-2-1 5,1 0-1,-1 0 1,0 0 0,-1-1-1,1 1 1,-1-1 0,0 0 0,-1 1-1,0-1 1,0-1 0,0 1-1,-1-1 1,1 1 0,-1-1 0,-1-1-1,-5 5 1,-22 26 45,17-11-507,17-23 397,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,1-1-1,12 1 102,3 0-134,33 1-221,-47-1 267,-1 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 1 1,-1-1-1,3 3 1,-3-1 48,0 0-1,0 0 1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 2 0,-4 0 184,1 0 0,-1 0 0,0-1 0,0 0 0,-15 3-1,-23-2-2522,42-5-2140</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.84">424 228 12950,'0'0'5050,"5"-8"-4703,-2 3-284,-1 1 0,1-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0-1,0 0 1,0 1 0,0-1 0,7 0 0,-6 1-38,33-2 78,-39 3-112,1-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,1-1 1,-1 1-1,0 1 1,0 1 6,1 12 19,-2-1 0,0 1-1,-4 22 1,4-32-14,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0 0,1 1 0,-1-1 0,-6 5 0,-7 5 8,9-7-6,0-1-1,0 1 1,1 0 0,-12 16-1,18-20 12,1-3-58,17 0-97,17 0-937,1-1-1,-1-2 1,1-1 0,41-11 0,-30 2-4604</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.83">424 228 12950,'0'0'5050,"5"-8"-4703,-2 3-284,-1 1 0,1-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0-1,0 0 1,0 1 0,0-1 0,7 0 0,-6 1-38,33-2 78,-39 3-112,1-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,1-1 1,-1 1-1,0 1 1,0 1 6,1 12 19,-2-1 0,0 1-1,-4 22 1,4-32-14,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0 0,1 1 0,-1-1 0,-6 5 0,-7 5 8,9-7-6,0-1-1,0 1 1,1 0 0,-12 16-1,18-20 12,1-3-58,17 0-97,17 0-937,1-1-1,-1-2 1,1-1 0,41-11 0,-30 2-4604</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1475.72">986 184 8580,'0'0'7585,"28"3"-5993,272-13-1421,-282 9-4826</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1789.1">1240 47 9076,'0'0'4189,"8"6"-4147,3 1 7,0 2-1,-1-1 0,-1 1 1,0 1-1,0 0 0,9 13 1,-16-21 26,0 1 0,0-1-1,0 1 1,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,-1-1 0,1 0 0,-4 4 0,-77 50 330,46-37-3704,28-18-2766</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2120.4">1556 72 14551,'0'0'4084,"0"6"-4036,1 50 369,1-28-159,-1-1 0,-2 0-1,0 1 1,-2-1 0,-9 39 0,8-42-1718</inkml:trace>
@@ -5686,11 +5686,11 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8205.27">3308 1025 6835,'0'0'6734,"-5"0"-6203,-26-2 3102,42 2-4171,22 0 111,61-1-2263,-31-4-3830,-44 0 2532</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8495.2">3393 936 6195,'0'0'9265,"0"-3"-7665,0 5-409,0 186-1300,0-108-4728,0-54-768</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9638.18">211 1018 8676,'0'0'5749,"0"-5"-5295,0 4-434,0 0 1,1 0 0,-2 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,1 1-1,-1-1 1,-2 0 0,-38-2 200,39 3-230,-6 0 13,0 0 1,0 1 0,1 0 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 1-1,1 0 1,-1 0 0,-11 8 0,15-8-9,1 0-1,-1 0 1,0 0 0,1 0 0,0 1-1,0 0 1,0-1 0,0 1-1,1 0 1,0 0 0,-1 1-1,1-1 1,1 0 0,-1 1-1,1-1 1,-1 1 0,2 0-1,-1-1 1,0 1 0,1 9 0,0-10-15,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1-1,0 0 1,0-1 0,1 1 0,-1-1 0,0 1 0,6 0 0,4 4-772,2-2 0,-1 0 0,0-1 0,1 0 0,17 0 0,4-2-2793</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9891.3">395 1104 9861,'0'0'3521,"54"3"-3249,-18-3 16,0 0-128,4 0-160,-4 0-1152,-9 0-3682</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9891.29">395 1104 9861,'0'0'3521,"54"3"-3249,-18-3 16,0 0-128,4 0-160,-4 0-1152,-9 0-3682</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11726.43">1972 1663 11733,'0'0'2049,"-9"66"414,-15 111-1161,21-102-6521,3-62 78</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12167.42">1923 1726 11333,'0'0'2553,"8"-6"-2499,26-20-14,-32 25-39,-1 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,3 0-1,-4 1-8,1-1-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,1 3-12,-1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,-3 6 0,-2-1-211,-1 0 0,1-1 0,-2 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,-1 0 0,-17 1 0,26-4 681,1 1-415,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,0 1 1,1-1-1,0 0 0,14 10 113,-13-10-7,21 14 153,1-2-1,0-1 0,27 8 1,-37-15-791,1 0 1,-1-1-1,1-1 1,15 0-1,6-1-2097</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12555.94">2250 1857 6867,'0'0'8383,"11"-8"-6518,89-15-1336,-3 1-5623,-91 20 1039,-5-2-582</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12753.85">2362 1788 7251,'0'0'6899,"-4"15"-6899,4 5 225,0 3 63,0 3-128,0-1-64,0-2-16,0-2-80,4-3-304,-4-6-2321,0-4-3730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12753.84">2362 1788 7251,'0'0'6899,"-4"15"-6899,4 5 225,0 3 63,0 3-128,0-1-64,0-2-16,0-2-80,4-3-304,-4-6-2321,0-4-3730</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13897.53">1847 128 2561,'0'0'10370,"0"-7"-10139,0 3-175,0 6 31,-13 169 1610,13-104-1049,0-53 199,0-45-246,2-43-588,24-137-1,-26 209-26,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 1,0 0-1,1 0 0,2-1 0,4 1-1,-1 0 0,1 0 0,0 1 0,0 0-1,-1 0 1,11 2 0,-18-1 15,1-1-1,0 1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 1,-1 3-1,-2 54 151,2-56-147,0 1-1,-1 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 1,0 0-1,0-1 0,-4 4 0,-46 27 22,38-24 6,13-3-45,1 1 1,0-1-1,0 1 1,0 0 0,1-1-1,0 1 1,0 0-1,1-1 1,1 8 0,1-9-59,-1 0 1,1 0-1,0 0 1,0-1 0,0 1-1,1-1 1,-1 1-1,1-1 1,0-1-1,0 1 1,1 0 0,-1-1-1,1 0 1,0 0-1,0 0 1,8 3-1,-3-2-340,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,1 0 0,17 1 0,-9-3-4704</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14185.52">2201 212 11301,'0'0'6867,"23"-5"-6242,8 2-49,14 1-304,13-3-224,14 0-96,4-8-1745,0 0-2097</inkml:trace>
 </inkml:ink>
@@ -5749,12 +5749,12 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">152 66 5314,'0'0'7692,"-11"-13"-1201,12 13-6494,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 1 0,0 4 21,0 0 1,0 0 0,0 0 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,-1 0 0,-7 9 0,5-9-117,1 0 0,-1 0-1,0-1 1,-1 1 0,1-1 0,-1 0-1,0-1 1,0 0 0,0 0 0,0 0-1,0-1 1,-1 0 0,1-1 0,-1 0-1,1 0 1,-13 0 0,20-1 79,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,0 1-1,0-1 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,1 0 1,10-24-614,-6 22 616,0 0 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,1 0-1,-1 0 1,1 1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,6 1 1,-10 0 21,0 0-1,0 0 1,0 0 0,-1-1 0,1 2 0,-1-1-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 1-1,1 0 1,-1 3 0,3 46-1219,-3-48 792</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="645.95">244 102 3586,'0'0'8265,"2"-4"-7905,2 0-180,0 0-1,1 0 1,-1 0-1,1 0 1,0 1 0,0 0-1,0 0 1,0 0 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1 1 0,11-1-1,-19 40-61,-5-23-65,-1-1-1,-1 1 1,0-1 0,-23 26 0,33-42-76,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,16 24-104,-16-24 114,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,-1 0 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 0 0,-1 0-1,0 1 1,0-1 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 0-1,0 0 1,-3 0 0,5 0-62,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0-11-4460</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="645.94">244 102 3586,'0'0'8265,"2"-4"-7905,2 0-180,0 0-1,1 0 1,-1 0-1,1 0 1,0 1 0,0 0-1,0 0 1,0 0 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1 1 0,11-1-1,-19 40-61,-5-23-65,-1-1-1,-1 1 1,0-1 0,-23 26 0,33-42-76,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,16 24-104,-16-24 114,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,-1 0 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 0 0,-1 0-1,0 1 1,0-1 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 0-1,0 0 1,-3 0 0,5 0-62,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0-11-4460</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1005.09">472 19 5619,'0'0'4041,"-17"14"-3224,16-12-756,1 1-1,-1-1 1,1 1 0,-1 0 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,4 3 0,3 8 699,-7-12-747,-1-1-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,-17 2-4016,11-4 212</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1209.16">485 19 7155,'-29'-5'1185,"33"5"528,3-2-369,7 0-816,4-2-143,0 2-145,-4 0 16,4 2-96,-4-2-32,-4 2-128,-3 0-80,-3 0-192,0 0-1681,-1 6-1168</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1209.15">485 19 7155,'-29'-5'1185,"33"5"528,3-2-369,7 0-816,4-2-143,0 2-145,-4 0 16,4 2-96,-4-2-32,-4 2-128,-3 0-80,-3 0-192,0 0-1681,-1 6-1168</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3029.71">791 87 5539,'0'0'7339,"0"-1"-7166,0-3-98,0 3 170,-1 15 83,-1 0 0,0 0 0,-5 16 0,-2 10-183,-2 28 139,-3 135 0,-4-227 397,7-9-646,7 25-13,1 0 0,1 0 0,-1 0 0,1-1 0,1 1 0,-1-13 0,2 21 90,3 38-352,0-28 255,-1-3-8,-1 0 1,1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,6 9-1,-8-15-10,0 1 0,0-1-1,0 1 1,0-1-1,-1 1 1,1-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,0 0 0,0-1-1,28-31 324,-28 30-376,39-43-1418,-26 30-4266,-11 14 2840</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5387.47">816 663 8292,'0'0'5968,"-15"-8"-2617,24 103-3226,-6-72-142,0 1 0,-2-1 0,-1 0 0,-2 27 0,1-45-42,1-1 0,-1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,-3 6 0,5-10 59,-1 1 1,1-1-1,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1-1 0,-17-16-216,14 11 198,-1 0 1,1-1 0,0 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,1 0 0,0 0-1,0-1 1,-1-8 0,3 16-45,17 24-341,-3-1 554,-10-17-166,-1 0 0,1 0 1,-1-1-1,1 1 0,1-1 1,-1 0-1,8 6 1,-11-10 21,1 0 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,1-2 1,15-28 191,-16 28-314,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 1-1,1-1 1,-1 0-1,5-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7189.97">878 1176 6819,'0'0'6043,"0"-7"-3194,-3 77-2638,-22 123 1,18-152-189,3 46 136,4-72-140,-2-15 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-4-1 1,1-2-2,1 0 0,-1 1 0,0-1-1,1-1 1,0 1 0,0 0 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1-9 0,1 13 596,7 37-1060,-6-22 479,4 34 88,-5-47-118,0 1 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,2 1 0,-1-2 10,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1-2 0,30-40 532,-13 15-346,-1 13-1005,-4 12-6597</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5387.46">816 663 8292,'0'0'5968,"-15"-8"-2617,24 103-3226,-6-72-142,0 1 0,-2-1 0,-1 0 0,-2 27 0,1-45-42,1-1 0,-1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,-3 6 0,5-10 59,-1 1 1,1-1-1,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1-1 0,-17-16-216,14 11 198,-1 0 1,1-1 0,0 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,1 0 0,0 0-1,0-1 1,-1-8 0,3 16-45,17 24-341,-3-1 554,-10-17-166,-1 0 0,1 0 1,-1-1-1,1 1 0,1-1 1,-1 0-1,8 6 1,-11-10 21,1 0 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,1-2 1,15-28 191,-16 28-314,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 1-1,1-1 1,-1 0-1,5-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7189.96">878 1176 6819,'0'0'6043,"0"-7"-3194,-3 77-2638,-22 123 1,18-152-189,3 46 136,4-72-140,-2-15 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-4-1 1,1-2-2,1 0 0,-1 1 0,0-1-1,1-1 1,0 1 0,0 0 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1-9 0,1 13 596,7 37-1060,-6-22 479,4 34 88,-5-47-118,0 1 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,2 1 0,-1-2 10,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1-2 0,30-40 532,-13 15-346,-1 13-1005,-4 12-6597</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10060.18">1223 1570 4562,'0'0'10746,"0"-4"-9836,5-213 3781,1-13-4983,-6 229 226,-15 26-268,10-16 350,0 0 0,-1 0 0,-1 0 0,1-1 0,-1 0 0,0-1 0,-1 1 0,-11 7 0,20-39-645,1 19 534,0 1 0,0-1 0,0 1 1,1-1-1,0 1 0,0 0 0,0-1 0,0 2 1,1-1-1,-1 0 0,1 1 0,0-1 0,0 1 1,7-4-1,-5 3 73,0 1 1,0 0 0,0 0-1,1 0 1,-1 1 0,1-1-1,-1 2 1,1-1 0,0 1-1,8-1 1,-14 3 22,0-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,0 0 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0 38 60,-1-30-53,1 14-4034</inkml:trace>
 </inkml:ink>
 </file>
@@ -26816,50 +26816,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="14.65" thickBot="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="2:10" ht="14.65" thickTop="1">
       <c r="B6" s="5"/>
@@ -26911,50 +26911,50 @@
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
@@ -27324,47 +27324,47 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:14" ht="17.649999999999999">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="2:14">
@@ -27478,47 +27478,47 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
       <c r="N21" s="4"/>
     </row>
     <row r="23" spans="2:14">
@@ -27638,8 +27638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BE1445-D333-48D8-AA74-AF3BB65EF7C3}">
   <dimension ref="B2:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27654,10 +27654,11 @@
     <col min="8" max="8" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28381,54 +28382,54 @@
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="2:18">
       <c r="C24" s="5"/>
@@ -28441,7 +28442,7 @@
     </row>
     <row r="26" spans="2:18">
       <c r="C26" s="5"/>
-      <c r="R26" s="18"/>
+      <c r="R26" s="15"/>
     </row>
     <row r="27" spans="2:18">
       <c r="C27" s="5" t="str" cm="1">
@@ -28484,72 +28485,72 @@
       <c r="O27">
         <v>2</v>
       </c>
-      <c r="R27" s="18"/>
+      <c r="R27" s="15"/>
     </row>
     <row r="28" spans="2:18">
       <c r="C28" s="5"/>
-      <c r="R28" s="18"/>
+      <c r="R28" s="15"/>
     </row>
     <row r="29" spans="2:18">
       <c r="C29" s="5"/>
-      <c r="R29" s="18"/>
+      <c r="R29" s="15"/>
     </row>
     <row r="30" spans="2:18">
       <c r="C30" s="5"/>
-      <c r="R30" s="18"/>
+      <c r="R30" s="15"/>
     </row>
     <row r="31" spans="2:18">
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" spans="3:16">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" spans="3:16">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="36" spans="3:16">
       <c r="C36" cm="1">
@@ -28593,54 +28594,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="5"/>
@@ -28735,54 +28736,54 @@
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
@@ -29204,26 +29205,26 @@
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="16" spans="2:16">
       <c r="D16" t="str" cm="1">
@@ -31483,7 +31484,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>531</v>
       </c>
       <c r="F2" s="1" t="str">
@@ -31497,7 +31498,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>531</v>
       </c>
       <c r="D5" t="s">
@@ -31528,13 +31529,13 @@
       <c r="E12" t="s">
         <v>537</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8">
       <c r="E13" t="s">
@@ -31564,7 +31565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2647D5A9-B7A3-4690-8E6A-605B074172C4}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -31576,7 +31577,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.65" thickBot="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="23">
+      <c r="B2" s="19">
         <v>171</v>
       </c>
       <c r="C2" s="7">
@@ -32109,10 +32110,10 @@
         <f ca="1">OFFSET(H7,-5,-6)</f>
         <v>171</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="17" t="s">
         <v>540</v>
       </c>
     </row>
@@ -32125,7 +32126,7 @@
         <f ca="1"/>
         <v>149</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="17" t="s">
         <v>541</v>
       </c>
     </row>
@@ -32160,45 +32161,45 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="30" spans="2:12">
       <c r="C30">
@@ -54695,28 +54696,28 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="22" spans="1:13">
       <c r="B22" t="s">
@@ -54758,28 +54759,28 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:13">
       <c r="C29" t="s">

--- a/Batch/19/Day_5.xlsx
+++ b/Batch/19/Day_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\Excel\Batch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07916072-11E1-4681-8426-4B2BFA9FCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400110D8-1A85-4ACE-9E68-331CFB43223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="11" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="12" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
@@ -25,15 +25,16 @@
     <sheet name="Vlookup" sheetId="56" r:id="rId10"/>
     <sheet name="Hlookup" sheetId="57" r:id="rId11"/>
     <sheet name="Index-Match" sheetId="59" r:id="rId12"/>
-    <sheet name="Xlookup" sheetId="58" r:id="rId13"/>
-    <sheet name="Filter" sheetId="62" r:id="rId14"/>
-    <sheet name="Indirect" sheetId="60" r:id="rId15"/>
-    <sheet name="Offset" sheetId="61" r:id="rId16"/>
+    <sheet name="index-match_revise" sheetId="63" r:id="rId13"/>
+    <sheet name="Xlookup" sheetId="58" r:id="rId14"/>
+    <sheet name="Filter" sheetId="62" r:id="rId15"/>
+    <sheet name="Indirect" sheetId="60" r:id="rId16"/>
+    <sheet name="Offset" sheetId="61" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$M$501</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8509" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8541" uniqueCount="544">
   <si>
     <t>Intro To excel</t>
   </si>
@@ -2774,6 +2775,9 @@
   <si>
     <t xml:space="preserve"> You want to find the age of the athlete that is listed five rows below "Isabella Williams" in the dataset. Use the OFFSET function to determine the age of that athlete.</t>
   </si>
+  <si>
+    <t>Price Of</t>
+  </si>
 </sst>
 </file>
 
@@ -5381,7 +5385,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">141 191 9893,'0'0'7053,"-2"-6"-2072,-5-22-4847,5 26-142,1 0 1,0 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,0 0 0,-1 1 1,1-1-1,0 0 1,-1 1-1,-2-1 0,0 1-5,1 1 0,-1-1-1,0 1 1,1 1-1,-1-1 1,1 0 0,-1 1-1,1 0 1,0 0-1,-7 4 1,9-3-27,-1-1 0,1 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,1 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 6 0,-1-1-82,2 1 1,-1 0-1,1-1 1,1 1-1,-1 0 0,3 9 1,-2-16 87,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,3 1 0,46-1-150,-5 0 264,-43 0-82,0 0 0,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 0,2 2 1,-1 1 8,0-1 0,0 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,-1 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-2-1 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,-1 1 0,-4 3 1,3-1 1,-1-1 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,-1 0-1,0-1 1,1 1 0,-1-1-1,0 0 1,0 0-1,0-1 1,-8 1 0,13-2-35,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0-2 0,0-32-1130,2 20 969,-1 15 184,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,9 6-160,7 15-66,-16-18 232,1 0 0,0 1 0,0-1 0,0 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 0 0,-1 1 0,1-2 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 0,0 0 0,0-1 0,4-3 0,-3 1 15,-1 1 0,1-1 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0-1 0,0 1 0,-1-1 0,1 0-1,-1 0 1,-1-6 0,1 12 213,0 63 78,0-60-305,1 1 1,-1-1 0,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,1-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,5 4 0,-7-6-25,1 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0 0,1-1-1,-1 1 1,0 0-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,1-2-1,3-5-93,0 0-1,0 0 1,-1 0-1,0-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,-2 0 1,1 0-1,-1-1 1,0-16 653,-1 66-309,0-29-201,0-3 34,-1-1-1,2 1 0,-1 0 1,1 0-1,0 0 0,1-1 1,2 9-1,-3-15-72,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,4-2 0,-3 2-65,0-1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0-4 1,1-4-153,0 0 0,-1 0 1,-1-21-1,0 26 276,1 2 6,-1 6 33,3 15 151,0 27 179,-3-44-385,2-3-28,0 0 1,0 0 0,0 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 0 0,0 1 0,0-6-1,6-8-89,-4 10 7,-2 4 51,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 0,0-1 1,0 0-1,0 1 0,0 0 0,0-1 1,4-1-1,-5 4 39,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,-1 0-1,1-1 1,0 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 2-1,5 29 468,-5-30-416,7 33 1025,-7-35-1076,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,10-18 76,-7 10-189,0 0 0,0 0 0,0 0 0,1 1 1,0 0-1,1 0 0,0 0 0,0 0 0,0 1 0,1 0 0,0 0 1,0 1-1,0 0 0,1 0 0,-1 0 0,1 1 0,15-5 0,-22 9 108,-1 0-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,3 21 301,-3-19-213,1 15-6,-2-9 182,2 1-1,0-1 1,0 1-1,0-1 1,5 13 0,-6-20-331,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,1-1 0,9-7-4900</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="620.31">1161 0 192,'0'0'17811,"-7"5"-17776,-3 2 36,0 1 1,1 0-1,0 1 1,0 0-1,1 1 1,0-1-1,0 2 1,1-1-1,1 1 1,0 0 0,0 0-1,1 1 1,0 0-1,1 0 1,-4 20-1,2-4 126,1 1-1,2 0 0,0 0 0,2 0 1,1 0-1,5 31 0,-5-55-211,1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,6 3 0,-4-3-394,1 0 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-2 0,0 1 0,-1-1 1,1 0-1,0 0 0,9 0 0,16-1-4105</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="620.3">1161 0 192,'0'0'17811,"-7"5"-17776,-3 2 36,0 1 1,1 0-1,0 1 1,0 0-1,1 1 1,0-1-1,0 2 1,1-1-1,1 1 1,0 0 0,0 0-1,1 1 1,0 0-1,1 0 1,-4 20-1,2-4 126,1 1-1,2 0 0,0 0 0,2 0 1,1 0-1,5 31 0,-5-55-211,1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,6 3 0,-4-3-394,1 0 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-2 0,0 1 0,-1-1 1,1 0-1,0 0 0,9 0 0,16-1-4105</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3554.48">1386 390 4066,'0'0'11272,"2"-36"-9051,-1 26 1459,9-145-5566,-12 190 1898,1-23-3,1 1 0,0-1 0,0 1 0,1-1 1,3 13-1,-4-23-22,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,2-1 0,0 0-92,-1-1 1,1 1 0,0 0 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,2-3 0,-1-1 1,1-1 64,-1 0 1,1 0 0,-1 0 0,-1 0-1,0-1 1,0 1 0,0-12 909,2 28-875,-2 1 43,1-1 0,-1 1-1,0 0 1,-1-1 0,0 11-1,9 37 465,-10-55-498,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,1 0 0,-1-1 1,0 1-1,1-1 0,-1 0 1,28-28 166,-22 23-88,-2 1-90,-3 3-23,1-1 1,-1 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0 0 1,4-2 0,16 59 443,-20-52-574,16 20 824,-1-17-3637</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3773.42">1573 93 11749,'0'0'3250,"10"-7"-8308,-4 7 367</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4578.33">1841 238 7700,'0'0'9348,"-3"-2"-9068,2 1-268,0 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1 0-1,-2 1 1,2 0 10,-1 0 0,1 0-1,-1 0 1,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,1 0 1,-3 5 0,2-2 9,-1 0-1,1 1 1,0-1 0,1 1-1,0-1 1,0 1 0,0 0-1,1 0 1,0-1-1,0 1 1,0 0 0,2 7-1,-1-13-31,-1 0-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 1 0,-1-1 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,0-1 1,0 0-1,0 1 0,2-2 1,1-1-7,1 0 0,-1 0 0,0 0 0,1 0 0,-2-1 0,1 1 1,0-1-1,-1 0 0,5-7 0,-1-3-129,-1 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,-2 0 1,1 0-1,-2 0 1,0-1-1,-1 1 1,0 0-1,-3-17 1,-1 78 1631,3-36-1464,1 0-1,1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,5 10 1,-6-17-50,0 1-1,1-1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,5-2-1,-3 0-406,1 0-1,-1 0 1,0 0-1,0-1 0,-1 1 1,1-1-1,-1-1 1,1 1-1,-1 0 0,-1-1 1,1 0-1,-1 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 0,-1 1 1,-1-1-1,1 0 1,1-11-1,-3 14 37,0-29-971,0 31 1465,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1 0 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,0 1-1,-1 3 132,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,1 8-1,-1-13-225,0 4-104,0 1 211,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0-1,2 7 1,-3-11-229,1 1-1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 0 0,11-8-4645</inkml:trace>
@@ -5465,7 +5469,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 36 4978,'-3'-1'12713,"18"5"-12447,-3 0-223,1 0 0,0-1 0,0 0 0,0-1 0,0 0 0,0-1 0,0-1 0,21-1 0,-23-2-2331,-6-1-2093,-4 1-43</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="305.28">144 2 6307,'0'0'8991,"-1"-2"-7881,6 4-1012,0 2-63,1-1-1,-1 1 1,0 0-1,0 0 1,0 1-1,-1-1 1,0 1-1,1 0 1,-2 0-1,1 0 0,-1 1 1,1 0-1,-2-1 1,1 1-1,-1 0 1,1 0-1,-2 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,0-1-1,-2 11 1,1-14-14,0 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0 0,-3 2-1,-20 11-1448,4-5-4002,6-6-3111</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="305.27">144 2 6307,'0'0'8991,"-1"-2"-7881,6 4-1012,0 2-63,1-1-1,-1 1 1,0 0-1,0 0 1,0 1-1,-1-1 1,0 1-1,1 0 1,-2 0-1,1 0 0,-1 1 1,1 0-1,-2-1 1,1 1-1,-1 0 1,1 0-1,-2 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,0-1-1,-2 11 1,1-14-14,0 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0 0,-3 2-1,-20 11-1448,4-5-4002,6-6-3111</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5749,9 +5753,9 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">152 66 5314,'0'0'7692,"-11"-13"-1201,12 13-6494,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 1 0,0 4 21,0 0 1,0 0 0,0 0 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,-1 0 0,-7 9 0,5-9-117,1 0 0,-1 0-1,0-1 1,-1 1 0,1-1 0,-1 0-1,0-1 1,0 0 0,0 0 0,0 0-1,0-1 1,-1 0 0,1-1 0,-1 0-1,1 0 1,-13 0 0,20-1 79,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,0 1-1,0-1 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,1 0 1,10-24-614,-6 22 616,0 0 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,1 0-1,-1 0 1,1 1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,6 1 1,-10 0 21,0 0-1,0 0 1,0 0 0,-1-1 0,1 2 0,-1-1-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 1-1,1 0 1,-1 3 0,3 46-1219,-3-48 792</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="645.94">244 102 3586,'0'0'8265,"2"-4"-7905,2 0-180,0 0-1,1 0 1,-1 0-1,1 0 1,0 1 0,0 0-1,0 0 1,0 0 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1 1 0,11-1-1,-19 40-61,-5-23-65,-1-1-1,-1 1 1,0-1 0,-23 26 0,33-42-76,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,16 24-104,-16-24 114,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,-1 0 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 0 0,-1 0-1,0 1 1,0-1 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 0-1,0 0 1,-3 0 0,5 0-62,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0-11-4460</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="645.93">244 102 3586,'0'0'8265,"2"-4"-7905,2 0-180,0 0-1,1 0 1,-1 0-1,1 0 1,0 1 0,0 0-1,0 0 1,0 0 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1 1 0,11-1-1,-19 40-61,-5-23-65,-1-1-1,-1 1 1,0-1 0,-23 26 0,33-42-76,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,16 24-104,-16-24 114,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,-1 0 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 0 0,-1 0-1,0 1 1,0-1 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 0-1,0 0 1,-3 0 0,5 0-62,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0-11-4460</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1005.09">472 19 5619,'0'0'4041,"-17"14"-3224,16-12-756,1 1-1,-1-1 1,1 1 0,-1 0 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,4 3 0,3 8 699,-7-12-747,-1-1-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,-17 2-4016,11-4 212</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1209.15">485 19 7155,'-29'-5'1185,"33"5"528,3-2-369,7 0-816,4-2-143,0 2-145,-4 0 16,4 2-96,-4-2-32,-4 2-128,-3 0-80,-3 0-192,0 0-1681,-1 6-1168</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1209.14">485 19 7155,'-29'-5'1185,"33"5"528,3-2-369,7 0-816,4-2-143,0 2-145,-4 0 16,4 2-96,-4-2-32,-4 2-128,-3 0-80,-3 0-192,0 0-1681,-1 6-1168</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3029.71">791 87 5539,'0'0'7339,"0"-1"-7166,0-3-98,0 3 170,-1 15 83,-1 0 0,0 0 0,-5 16 0,-2 10-183,-2 28 139,-3 135 0,-4-227 397,7-9-646,7 25-13,1 0 0,1 0 0,-1 0 0,1-1 0,1 1 0,-1-13 0,2 21 90,3 38-352,0-28 255,-1-3-8,-1 0 1,1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,6 9-1,-8-15-10,0 1 0,0-1-1,0 1 1,0-1-1,-1 1 1,1-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,0 0 0,0-1-1,28-31 324,-28 30-376,39-43-1418,-26 30-4266,-11 14 2840</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5387.46">816 663 8292,'0'0'5968,"-15"-8"-2617,24 103-3226,-6-72-142,0 1 0,-2-1 0,-1 0 0,-2 27 0,1-45-42,1-1 0,-1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,-3 6 0,5-10 59,-1 1 1,1-1-1,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1-1 0,-17-16-216,14 11 198,-1 0 1,1-1 0,0 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,1 0 0,0 0-1,0-1 1,-1-8 0,3 16-45,17 24-341,-3-1 554,-10-17-166,-1 0 0,1 0 1,-1-1-1,1 1 0,1-1 1,-1 0-1,8 6 1,-11-10 21,1 0 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,1-2 1,15-28 191,-16 28-314,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 1-1,1-1 1,-1 0-1,5-4 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7189.96">878 1176 6819,'0'0'6043,"0"-7"-3194,-3 77-2638,-22 123 1,18-152-189,3 46 136,4-72-140,-2-15 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-4-1 1,1-2-2,1 0 0,-1 1 0,0-1-1,1-1 1,0 1 0,0 0 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1-9 0,1 13 596,7 37-1060,-6-22 479,4 34 88,-5-47-118,0 1 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,2 1 0,-1-2 10,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1-2 0,30-40 532,-13 15-346,-1 13-1005,-4 12-6597</inkml:trace>
@@ -6226,23 +6230,23 @@
       <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.8125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.4375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1875" customWidth="1"/>
+    <col min="12" max="12" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -26807,15 +26811,15 @@
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.265625" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="14.65" thickBot="1">
+    <row r="2" spans="2:10" ht="13.9" thickBot="1">
       <c r="B2" s="21" t="s">
         <v>473</v>
       </c>
@@ -26828,7 +26832,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickTop="1" thickBot="1">
+    <row r="3" spans="2:10" ht="14.25" thickTop="1" thickBot="1">
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -26839,7 +26843,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:10" ht="14.25" thickTop="1" thickBot="1">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -26850,7 +26854,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="2:10" ht="15" thickTop="1" thickBot="1">
+    <row r="5" spans="2:10" ht="14.25" thickTop="1" thickBot="1">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -26861,10 +26865,10 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="2:10" ht="14.65" thickTop="1">
+    <row r="6" spans="2:10" ht="14.25" thickTop="1">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" ht="13.9">
       <c r="B7" s="5" t="s">
         <v>474</v>
       </c>
@@ -26876,7 +26880,7 @@
         <v>Weightlifting</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="13.9">
       <c r="B8" s="5" t="s">
         <v>475</v>
       </c>
@@ -26884,7 +26888,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" ht="13.9">
       <c r="B9" s="5" t="s">
         <v>460</v>
       </c>
@@ -26896,7 +26900,7 @@
         <v>Weightlifting</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" ht="13.9">
       <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
@@ -26904,10 +26908,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" ht="13.9">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" ht="13.9">
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="2:10">
@@ -27214,32 +27218,32 @@
     <row r="41" spans="3:10">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="3:10" ht="13.9">
       <c r="C42" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="3:10">
+    <row r="43" spans="3:10" ht="13.9">
       <c r="C43" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="44" spans="3:10">
+    <row r="44" spans="3:10" ht="13.9">
       <c r="C44" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="45" spans="3:10">
+    <row r="45" spans="3:10" ht="13.9">
       <c r="C45" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="3:10">
+    <row r="46" spans="3:10" ht="13.9">
       <c r="C46" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="47" spans="3:10">
+    <row r="47" spans="3:10" ht="13.9">
       <c r="C47" s="4" t="s">
         <v>493</v>
       </c>
@@ -27249,7 +27253,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" ht="13.9">
       <c r="C49" s="4" t="s">
         <v>495</v>
       </c>
@@ -27262,37 +27266,37 @@
     <row r="52" spans="3:4">
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" ht="13.9">
       <c r="C53" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" ht="13.9">
       <c r="C54" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" ht="13.9">
       <c r="C55" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" ht="13.9">
       <c r="C56" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="3:4" ht="13.9">
       <c r="C57" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:4" ht="13.9">
       <c r="C58" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" spans="3:4" ht="13.9">
       <c r="C59" s="4" t="s">
         <v>503</v>
       </c>
@@ -27321,7 +27325,7 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:14" ht="17.649999999999999">
       <c r="B2" s="22" t="s">
@@ -27367,33 +27371,33 @@
       <c r="L4" s="22"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" ht="13.9">
       <c r="B5" s="5"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" ht="13.9">
       <c r="B6" s="5" t="str">
         <f>HLOOKUP("James Davis",Horiztonal_Dataset!A1:SG13,3,0)</f>
         <v>Japan</v>
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" ht="13.9">
       <c r="B7" s="5"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="13.9">
       <c r="B8" s="5" t="str">
         <f>HLOOKUP("James Davis",Horiztonal_Dataset!A1:SG13,ROWS(Horiztonal_Dataset!A1:A3),0)</f>
         <v>Japan</v>
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" ht="13.9">
       <c r="B9" s="5"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" ht="13.9">
       <c r="B10" s="5" t="str" cm="1">
         <f t="array" ref="B10:D10">HLOOKUP("James Davis",Horiztonal_Dataset!A1:SG13,{3,4,5},0)</f>
         <v>Japan</v>
@@ -27406,11 +27410,11 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="13.9">
       <c r="B11" s="5"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="13.9">
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="2:14" ht="17.649999999999999">
@@ -27459,11 +27463,11 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="13.9">
       <c r="B16" s="5"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" ht="13.9">
       <c r="B17" s="5">
         <v>235</v>
       </c>
@@ -27473,7 +27477,7 @@
       </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" ht="13.9">
       <c r="B18" s="5"/>
       <c r="N18" s="4"/>
     </row>
@@ -27535,22 +27539,22 @@
     <row r="26" spans="2:14">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" ht="13.9">
       <c r="B27" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" ht="13.9">
       <c r="B28" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" ht="13.9">
       <c r="B29" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" ht="13.9">
       <c r="B30" s="4" t="s">
         <v>512</v>
       </c>
@@ -27560,12 +27564,12 @@
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" ht="13.9">
       <c r="B32" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" ht="13.9">
       <c r="B33" s="4" t="s">
         <v>515</v>
       </c>
@@ -27578,42 +27582,42 @@
     <row r="36" spans="2:3">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" ht="13.9">
       <c r="B37" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" ht="13.9">
       <c r="B38" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" ht="13.9">
       <c r="B39" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" ht="13.9">
       <c r="B40" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" ht="13.9">
       <c r="B41" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" ht="13.9">
       <c r="B42" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" ht="13.9">
       <c r="B43" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" ht="13.9">
       <c r="B44" s="4" t="s">
         <v>524</v>
       </c>
@@ -27638,28 +27642,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BE1445-D333-48D8-AA74-AF3BB65EF7C3}">
   <dimension ref="B2:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.06640625" customWidth="1"/>
-    <col min="2" max="2" width="2.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.0625" customWidth="1"/>
+    <col min="2" max="2" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.4375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.8125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.8125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
@@ -27700,7 +27704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="14.65" thickBot="1">
+    <row r="3" spans="2:18" ht="13.9" thickBot="1">
       <c r="B3">
         <v>1</v>
       </c>
@@ -28340,7 +28344,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="14.65" thickBot="1">
+    <row r="18" spans="2:18" ht="13.9" thickBot="1">
       <c r="B18">
         <v>16</v>
       </c>
@@ -28431,20 +28435,20 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" ht="13.9">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" ht="13.9">
       <c r="C25" s="5">
         <f>INDEX(Dataset!A1:M501,MATCH("Sophia Marti*",Dataset!A1:A501,0),MATCH("Age",Dataset!A1:M1,0))</f>
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" ht="13.9">
       <c r="C26" s="5"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" ht="13.9">
       <c r="C27" s="5" t="str" cm="1">
         <f t="array" ref="C27:O27">INDEX(Dataset!A1:M501,MATCH("Sophia Marti*",Dataset!A1:A501,0),)</f>
         <v>Sophia Martinez</v>
@@ -28487,19 +28491,19 @@
       </c>
       <c r="R27" s="15"/>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" ht="13.9">
       <c r="C28" s="5"/>
       <c r="R28" s="15"/>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" ht="13.9">
       <c r="C29" s="5"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" ht="13.9">
       <c r="C30" s="5"/>
       <c r="R30" s="15"/>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" ht="13.9">
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:18">
@@ -28581,6 +28585,778 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34847FF0-1524-48D8-AC37-0EEC032CF93C}">
+  <dimension ref="B2:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="12.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="13.9" thickBot="1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="6">
+        <v>171</v>
+      </c>
+      <c r="E4" s="7">
+        <v>64</v>
+      </c>
+      <c r="F4" s="7">
+        <v>257</v>
+      </c>
+      <c r="G4" s="7">
+        <v>347</v>
+      </c>
+      <c r="H4" s="7">
+        <v>184</v>
+      </c>
+      <c r="I4" s="7">
+        <v>452</v>
+      </c>
+      <c r="J4" s="7">
+        <v>105</v>
+      </c>
+      <c r="K4" s="7">
+        <v>171</v>
+      </c>
+      <c r="L4" s="7">
+        <v>388</v>
+      </c>
+      <c r="M4" s="7">
+        <v>303</v>
+      </c>
+      <c r="N4" s="8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="9">
+        <v>184</v>
+      </c>
+      <c r="E5">
+        <v>416</v>
+      </c>
+      <c r="F5">
+        <v>273</v>
+      </c>
+      <c r="G5">
+        <v>76</v>
+      </c>
+      <c r="H5">
+        <v>167</v>
+      </c>
+      <c r="I5">
+        <v>309</v>
+      </c>
+      <c r="J5">
+        <v>293</v>
+      </c>
+      <c r="K5">
+        <v>218</v>
+      </c>
+      <c r="L5">
+        <v>296</v>
+      </c>
+      <c r="M5">
+        <v>263</v>
+      </c>
+      <c r="N5" s="10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="9">
+        <v>209</v>
+      </c>
+      <c r="E6">
+        <v>253</v>
+      </c>
+      <c r="F6">
+        <v>333</v>
+      </c>
+      <c r="G6">
+        <v>463</v>
+      </c>
+      <c r="H6">
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>396</v>
+      </c>
+      <c r="J6">
+        <v>280</v>
+      </c>
+      <c r="K6">
+        <v>139</v>
+      </c>
+      <c r="L6">
+        <v>271</v>
+      </c>
+      <c r="M6">
+        <v>220</v>
+      </c>
+      <c r="N6" s="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" s="9">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>304</v>
+      </c>
+      <c r="F7">
+        <v>239</v>
+      </c>
+      <c r="G7">
+        <v>77</v>
+      </c>
+      <c r="H7">
+        <v>493</v>
+      </c>
+      <c r="I7">
+        <v>485</v>
+      </c>
+      <c r="J7">
+        <v>291</v>
+      </c>
+      <c r="K7">
+        <v>208</v>
+      </c>
+      <c r="L7">
+        <v>359</v>
+      </c>
+      <c r="M7">
+        <v>126</v>
+      </c>
+      <c r="N7" s="10">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="9">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>354</v>
+      </c>
+      <c r="F8">
+        <v>181</v>
+      </c>
+      <c r="G8">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>359</v>
+      </c>
+      <c r="J8">
+        <v>448</v>
+      </c>
+      <c r="K8">
+        <v>465</v>
+      </c>
+      <c r="L8">
+        <v>220</v>
+      </c>
+      <c r="M8">
+        <v>126</v>
+      </c>
+      <c r="N8" s="10">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>113</v>
+      </c>
+      <c r="F9">
+        <v>135</v>
+      </c>
+      <c r="G9">
+        <v>264</v>
+      </c>
+      <c r="H9">
+        <v>157</v>
+      </c>
+      <c r="I9">
+        <v>408</v>
+      </c>
+      <c r="J9">
+        <v>454</v>
+      </c>
+      <c r="K9">
+        <v>105</v>
+      </c>
+      <c r="L9">
+        <v>464</v>
+      </c>
+      <c r="M9">
+        <v>218</v>
+      </c>
+      <c r="N9" s="10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="9">
+        <v>207</v>
+      </c>
+      <c r="E10">
+        <v>106</v>
+      </c>
+      <c r="F10">
+        <v>381</v>
+      </c>
+      <c r="G10">
+        <v>415</v>
+      </c>
+      <c r="H10">
+        <v>331</v>
+      </c>
+      <c r="I10">
+        <v>169</v>
+      </c>
+      <c r="J10">
+        <v>439</v>
+      </c>
+      <c r="K10">
+        <v>329</v>
+      </c>
+      <c r="L10">
+        <v>140</v>
+      </c>
+      <c r="M10">
+        <v>107</v>
+      </c>
+      <c r="N10" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="9">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>249</v>
+      </c>
+      <c r="H11">
+        <v>497</v>
+      </c>
+      <c r="I11">
+        <v>267</v>
+      </c>
+      <c r="J11">
+        <v>339</v>
+      </c>
+      <c r="K11">
+        <v>327</v>
+      </c>
+      <c r="L11">
+        <v>199</v>
+      </c>
+      <c r="M11">
+        <v>353</v>
+      </c>
+      <c r="N11" s="10">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="9">
+        <v>346</v>
+      </c>
+      <c r="E12">
+        <v>314</v>
+      </c>
+      <c r="F12">
+        <v>148</v>
+      </c>
+      <c r="G12">
+        <v>349</v>
+      </c>
+      <c r="H12">
+        <v>440</v>
+      </c>
+      <c r="I12">
+        <v>325</v>
+      </c>
+      <c r="J12">
+        <v>148</v>
+      </c>
+      <c r="K12">
+        <v>479</v>
+      </c>
+      <c r="L12">
+        <v>464</v>
+      </c>
+      <c r="M12">
+        <v>149</v>
+      </c>
+      <c r="N12" s="10">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" s="9">
+        <v>436</v>
+      </c>
+      <c r="E13">
+        <v>404</v>
+      </c>
+      <c r="F13">
+        <v>458</v>
+      </c>
+      <c r="G13">
+        <v>294</v>
+      </c>
+      <c r="H13">
+        <v>129</v>
+      </c>
+      <c r="I13">
+        <v>437</v>
+      </c>
+      <c r="J13">
+        <v>264</v>
+      </c>
+      <c r="K13">
+        <v>116</v>
+      </c>
+      <c r="L13">
+        <v>397</v>
+      </c>
+      <c r="M13">
+        <v>105</v>
+      </c>
+      <c r="N13" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="9">
+        <v>289</v>
+      </c>
+      <c r="E14">
+        <v>412</v>
+      </c>
+      <c r="F14">
+        <v>114</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>360</v>
+      </c>
+      <c r="I14">
+        <v>117</v>
+      </c>
+      <c r="J14">
+        <v>112</v>
+      </c>
+      <c r="K14">
+        <v>260</v>
+      </c>
+      <c r="L14">
+        <v>246</v>
+      </c>
+      <c r="M14">
+        <v>208</v>
+      </c>
+      <c r="N14" s="10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D15" s="9">
+        <v>340</v>
+      </c>
+      <c r="E15">
+        <v>237</v>
+      </c>
+      <c r="F15">
+        <v>307</v>
+      </c>
+      <c r="G15">
+        <v>382</v>
+      </c>
+      <c r="H15">
+        <v>338</v>
+      </c>
+      <c r="I15">
+        <v>459</v>
+      </c>
+      <c r="J15">
+        <v>237</v>
+      </c>
+      <c r="K15">
+        <v>231</v>
+      </c>
+      <c r="L15">
+        <v>244</v>
+      </c>
+      <c r="M15">
+        <v>207</v>
+      </c>
+      <c r="N15" s="10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" s="9">
+        <v>267</v>
+      </c>
+      <c r="E16">
+        <v>154</v>
+      </c>
+      <c r="F16">
+        <v>388</v>
+      </c>
+      <c r="G16">
+        <v>452</v>
+      </c>
+      <c r="H16">
+        <v>428</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>151</v>
+      </c>
+      <c r="K16">
+        <v>147</v>
+      </c>
+      <c r="L16">
+        <v>240</v>
+      </c>
+      <c r="M16">
+        <v>295</v>
+      </c>
+      <c r="N16" s="10">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" s="9">
+        <v>385</v>
+      </c>
+      <c r="E17">
+        <v>435</v>
+      </c>
+      <c r="F17">
+        <v>480</v>
+      </c>
+      <c r="G17">
+        <v>369</v>
+      </c>
+      <c r="H17">
+        <v>306</v>
+      </c>
+      <c r="I17">
+        <v>419</v>
+      </c>
+      <c r="J17">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <v>119</v>
+      </c>
+      <c r="L17">
+        <v>327</v>
+      </c>
+      <c r="M17">
+        <v>399</v>
+      </c>
+      <c r="N17" s="10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="13.9" thickBot="1">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="11">
+        <v>152</v>
+      </c>
+      <c r="E18" s="12">
+        <v>311</v>
+      </c>
+      <c r="F18" s="12">
+        <v>486</v>
+      </c>
+      <c r="G18" s="12">
+        <v>139</v>
+      </c>
+      <c r="H18" s="12">
+        <v>269</v>
+      </c>
+      <c r="I18" s="12">
+        <v>138</v>
+      </c>
+      <c r="J18" s="12">
+        <v>271</v>
+      </c>
+      <c r="K18" s="12">
+        <v>212</v>
+      </c>
+      <c r="L18" s="12">
+        <v>476</v>
+      </c>
+      <c r="M18" s="12">
+        <v>265</v>
+      </c>
+      <c r="N18" s="13">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="D20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="D21" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">INDEX(C3:N18,D22,E22)</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <f>MATCH(D21,C3:C18,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f>MATCH(E21,C3:N3,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="C26">
+        <f>INDEX(C3:N18,MATCH(D21,C3:C18,0),MATCH(E21,C3:N3,0))</f>
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21" xr:uid="{2656221D-A822-4E07-A471-EBEDCE23F5E8}">
+      <formula1>$C$3:$C$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{5F8723F4-FCE6-4CE2-947D-4EE29F10937B}">
+      <formula1>$C$3:$N$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CBF4AC-A791-4321-BC77-2D7D553D771A}">
   <dimension ref="B2:Q19"/>
   <sheetViews>
@@ -28588,9 +29364,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
@@ -28643,10 +29419,10 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" ht="13.9">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" ht="13.9">
       <c r="B6" s="5" t="s">
         <v>528</v>
       </c>
@@ -28665,7 +29441,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" ht="13.9">
       <c r="B7" s="5"/>
       <c r="N7" t="str">
         <f>_xlfn.XLOOKUP(235,P6:P11,Q6:Q11,,-1)</f>
@@ -28678,7 +29454,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" ht="13.9">
       <c r="B8" s="5"/>
       <c r="D8" t="str">
         <f>_xlfn.XLOOKUP("Siraj",Dataset!$A$1:$A$501,Dataset!$I$1:$I$501,"No Data")</f>
@@ -28695,7 +29471,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" ht="13.9">
       <c r="B9" s="5"/>
       <c r="P9">
         <v>250</v>
@@ -28704,7 +29480,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" ht="13.9">
       <c r="B10" s="5"/>
       <c r="D10" t="str">
         <f>_xlfn.XLOOKUP("Siraj",Dataset!$A$1:$A$501,Dataset!$I$1:$I$501,"No Data")</f>
@@ -28717,7 +29493,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" ht="13.9">
       <c r="B11" s="5"/>
       <c r="P11">
         <v>350</v>
@@ -28726,10 +29502,10 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" ht="13.9">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" ht="13.9">
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="2:17">
@@ -28804,7 +29580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E414F-EE60-4E70-AD40-202A17CA19B0}">
   <dimension ref="B2:P69"/>
   <sheetViews>
@@ -28812,22 +29588,22 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.9375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.8125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
@@ -31467,7 +32243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0804948B-59A2-4D21-8514-FE834D190D39}">
   <dimension ref="B2:H15"/>
   <sheetViews>
@@ -31475,12 +32251,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -31561,7 +32337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2647D5A9-B7A3-4690-8E6A-605B074172C4}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -31569,13 +32345,13 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.65" thickBot="1"/>
+    <row r="1" spans="2:12" ht="13.9" thickBot="1"/>
     <row r="2" spans="2:12">
       <c r="B2" s="19">
         <v>171</v>
@@ -32066,7 +32842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="14.65" thickBot="1">
+    <row r="16" spans="2:12" ht="13.9" thickBot="1">
       <c r="B16" s="11">
         <v>152</v>
       </c>
@@ -32237,488 +33013,488 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.4375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="9" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.6875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="9" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.125" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="13" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.75" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="11" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.875" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="9" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="118" max="119" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="132" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.0625" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="11" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="175" max="176" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="194" max="195" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="201" max="202" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="175" max="176" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="12.4375" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="194" max="195" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="201" max="202" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="8.4375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="11.6875" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="11" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="8.4375" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="11.125" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="11" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="11.6875" bestFit="1" customWidth="1"/>
     <col min="248" max="248" width="11" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="13.125" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="13" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="272" max="273" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="277" max="278" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="272" max="273" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="277" max="278" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="13" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="9.8125" bestFit="1" customWidth="1"/>
     <col min="334" max="334" width="11" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="10.875" bestFit="1" customWidth="1"/>
     <col min="336" max="336" width="11" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="11.9375" bestFit="1" customWidth="1"/>
     <col min="342" max="342" width="9" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="345" max="346" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="345" max="346" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="8.75" bestFit="1" customWidth="1"/>
     <col min="348" max="348" width="11" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="368" max="369" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="368" max="369" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="13.5625" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="11.9375" bestFit="1" customWidth="1"/>
     <col min="389" max="389" width="9" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="402" max="403" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="411" max="412" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="402" max="403" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="411" max="412" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="11.9375" bestFit="1" customWidth="1"/>
     <col min="417" max="417" width="11" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="421" max="422" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="421" max="422" width="10.75" bestFit="1" customWidth="1"/>
     <col min="423" max="423" width="13" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="425" max="426" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="425" max="426" width="14.0625" bestFit="1" customWidth="1"/>
     <col min="427" max="427" width="11" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="430" max="431" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="435" max="436" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="440" max="441" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="452" max="452" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="430" max="431" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="435" max="436" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="440" max="441" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="10.875" bestFit="1" customWidth="1"/>
     <col min="460" max="460" width="11" bestFit="1" customWidth="1"/>
     <col min="461" max="461" width="13" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="14.0625" bestFit="1" customWidth="1"/>
     <col min="468" max="468" width="9" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="8.4375" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="11.5625" bestFit="1" customWidth="1"/>
     <col min="479" max="479" width="9" bestFit="1" customWidth="1"/>
     <col min="480" max="480" width="11" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="482" max="482" width="11" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="488" max="488" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="492" max="492" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="496" max="496" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="13.125" bestFit="1" customWidth="1"/>
     <col min="500" max="500" width="9" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:501">
@@ -52302,11 +53078,11 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="75.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -52596,16 +53372,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
@@ -52692,7 +53468,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2" ht="17.649999999999999">
       <c r="B2" s="3" t="s">
@@ -52702,77 +53478,77 @@
     <row r="3" spans="2:2">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" ht="13.9">
       <c r="B4" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" ht="13.9">
       <c r="B5" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" ht="13.9">
       <c r="B6" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" ht="13.9">
       <c r="B7" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" ht="13.9">
       <c r="B8" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" ht="13.9">
       <c r="B9" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" ht="13.9">
       <c r="B10" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" ht="13.9">
       <c r="B11" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" ht="13.9">
       <c r="B12" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" ht="13.9">
       <c r="B16" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>263</v>
       </c>
@@ -52785,77 +53561,77 @@
     <row r="23" spans="2:2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" ht="13.9">
       <c r="B24" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" ht="13.9">
       <c r="B25" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" ht="13.9">
       <c r="B26" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" ht="13.9">
       <c r="B27" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" ht="13.9">
       <c r="B28" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" ht="13.9">
       <c r="B29" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" ht="13.9">
       <c r="B30" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" ht="13.9">
       <c r="B31" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" ht="13.9">
       <c r="B32" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" ht="13.9">
       <c r="B33" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" ht="13.9">
       <c r="B37" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" ht="13.9">
       <c r="B38" s="5" t="s">
         <v>278</v>
       </c>
@@ -52868,77 +53644,77 @@
     <row r="43" spans="2:2">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" ht="13.9">
       <c r="B44" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" ht="13.9">
       <c r="B45" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" ht="13.9">
       <c r="B46" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" ht="13.9">
       <c r="B47" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" ht="13.9">
       <c r="B48" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" ht="13.9">
       <c r="B49" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" ht="13.9">
       <c r="B50" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" ht="13.9">
       <c r="B51" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" ht="13.9">
       <c r="B52" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" ht="13.9">
       <c r="B54" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" ht="13.9">
       <c r="B55" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" ht="13.9">
       <c r="B56" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" ht="13.9">
       <c r="B57" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" ht="13.9">
       <c r="B58" s="5" t="s">
         <v>293</v>
       </c>
@@ -52951,77 +53727,77 @@
     <row r="63" spans="2:2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" ht="13.9">
       <c r="B64" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" ht="13.9">
       <c r="B65" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" ht="13.9">
       <c r="B66" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" ht="13.9">
       <c r="B67" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" ht="13.9">
       <c r="B68" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" ht="13.9">
       <c r="B69" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" ht="13.9">
       <c r="B70" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" ht="13.9">
       <c r="B71" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" ht="13.9">
       <c r="B72" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" ht="13.9">
       <c r="B73" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" ht="13.9">
       <c r="B74" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" ht="13.9">
       <c r="B75" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" ht="13.9">
       <c r="B76" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" ht="13.9">
       <c r="B77" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" ht="13.9">
       <c r="B78" s="5" t="s">
         <v>308</v>
       </c>
@@ -53034,77 +53810,77 @@
     <row r="83" spans="2:2">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" ht="13.9">
       <c r="B84" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" ht="13.9">
       <c r="B85" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" ht="13.9">
       <c r="B86" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" ht="13.9">
       <c r="B87" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" ht="13.9">
       <c r="B88" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" ht="13.9">
       <c r="B89" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" ht="13.9">
       <c r="B90" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" ht="13.9">
       <c r="B91" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" ht="13.9">
       <c r="B92" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" ht="13.9">
       <c r="B93" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" ht="13.9">
       <c r="B94" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" ht="13.9">
       <c r="B95" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" ht="13.9">
       <c r="B96" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" ht="13.9">
       <c r="B97" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" ht="13.9">
       <c r="B98" s="5" t="s">
         <v>323</v>
       </c>
@@ -53117,77 +53893,77 @@
     <row r="103" spans="2:2">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" ht="13.9">
       <c r="B104" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" ht="13.9">
       <c r="B105" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" ht="13.9">
       <c r="B106" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" ht="13.9">
       <c r="B107" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" ht="13.9">
       <c r="B108" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" ht="13.9">
       <c r="B109" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" ht="13.9">
       <c r="B110" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" ht="13.9">
       <c r="B111" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" ht="13.9">
       <c r="B112" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" ht="13.9">
       <c r="B113" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" ht="13.9">
       <c r="B114" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" ht="13.9">
       <c r="B115" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" ht="13.9">
       <c r="B116" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" ht="13.9">
       <c r="B117" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" ht="13.9">
       <c r="B118" s="5" t="s">
         <v>338</v>
       </c>
@@ -53200,77 +53976,77 @@
     <row r="123" spans="2:2">
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" ht="13.9">
       <c r="B124" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" ht="13.9">
       <c r="B125" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" ht="13.9">
       <c r="B126" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" ht="13.9">
       <c r="B127" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" ht="13.9">
       <c r="B128" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" ht="13.9">
       <c r="B129" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" ht="13.9">
       <c r="B130" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" ht="13.9">
       <c r="B131" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" ht="13.9">
       <c r="B132" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" ht="13.9">
       <c r="B133" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" ht="13.9">
       <c r="B134" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" ht="13.9">
       <c r="B135" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" ht="13.9">
       <c r="B136" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" ht="13.9">
       <c r="B137" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" ht="13.9">
       <c r="B138" s="5" t="s">
         <v>353</v>
       </c>
@@ -53283,77 +54059,77 @@
     <row r="143" spans="2:2">
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" ht="13.9">
       <c r="B144" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" ht="13.9">
       <c r="B145" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" ht="13.9">
       <c r="B146" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" ht="13.9">
       <c r="B147" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" ht="13.9">
       <c r="B148" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" ht="13.9">
       <c r="B149" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" ht="13.9">
       <c r="B150" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" ht="13.9">
       <c r="B151" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" ht="13.9">
       <c r="B152" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" ht="13.9">
       <c r="B153" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" ht="13.9">
       <c r="B154" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" ht="13.9">
       <c r="B155" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" ht="13.9">
       <c r="B156" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" ht="13.9">
       <c r="B157" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" ht="13.9">
       <c r="B158" s="5" t="s">
         <v>368</v>
       </c>
@@ -53366,77 +54142,77 @@
     <row r="163" spans="2:2">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" ht="13.9">
       <c r="B164" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" ht="13.9">
       <c r="B165" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" ht="13.9">
       <c r="B166" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" ht="13.9">
       <c r="B167" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" ht="13.9">
       <c r="B168" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" ht="13.9">
       <c r="B169" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" ht="13.9">
       <c r="B170" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" ht="13.9">
       <c r="B171" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" ht="13.9">
       <c r="B172" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" ht="13.9">
       <c r="B173" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" ht="13.9">
       <c r="B174" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" ht="13.9">
       <c r="B175" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" ht="13.9">
       <c r="B176" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" ht="13.9">
       <c r="B177" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" ht="13.9">
       <c r="B178" s="5" t="s">
         <v>383</v>
       </c>
@@ -53449,72 +54225,72 @@
     <row r="183" spans="2:2">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" ht="13.9">
       <c r="B184" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" ht="13.9">
       <c r="B185" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" ht="13.9">
       <c r="B186" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" ht="13.9">
       <c r="B187" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" ht="13.9">
       <c r="B188" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" ht="13.9">
       <c r="B189" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" ht="13.9">
       <c r="B190" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" ht="13.9">
       <c r="B191" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" ht="13.9">
       <c r="B192" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" ht="13.9">
       <c r="B193" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" ht="13.9">
       <c r="B194" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" ht="13.9">
       <c r="B195" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" ht="13.9">
       <c r="B196" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" ht="13.9">
       <c r="B197" s="5" t="s">
         <v>397</v>
       </c>
@@ -53527,77 +54303,77 @@
     <row r="200" spans="2:2">
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" ht="13.9">
       <c r="B201" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" ht="13.9">
       <c r="B202" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" ht="13.9">
       <c r="B203" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" ht="13.9">
       <c r="B204" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" ht="13.9">
       <c r="B205" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:2" ht="13.9">
       <c r="B206" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" ht="13.9">
       <c r="B207" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" ht="13.9">
       <c r="B208" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" ht="13.9">
       <c r="B209" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" ht="13.9">
       <c r="B210" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" ht="13.9">
       <c r="B211" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" ht="13.9">
       <c r="B212" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" ht="13.9">
       <c r="B213" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" ht="13.9">
       <c r="B214" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" ht="13.9">
       <c r="B215" s="5" t="s">
         <v>412</v>
       </c>
@@ -53610,77 +54386,77 @@
     <row r="220" spans="2:2">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" ht="13.9">
       <c r="B221" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" ht="13.9">
       <c r="B222" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" ht="13.9">
       <c r="B223" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" ht="13.9">
       <c r="B224" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" ht="13.9">
       <c r="B225" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" ht="13.9">
       <c r="B226" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" ht="13.9">
       <c r="B227" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" ht="13.9">
       <c r="B228" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" ht="13.9">
       <c r="B229" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" ht="13.9">
       <c r="B230" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" ht="13.9">
       <c r="B231" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" ht="13.9">
       <c r="B232" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" ht="13.9">
       <c r="B233" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" ht="13.9">
       <c r="B234" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" ht="13.9">
       <c r="B235" s="5" t="s">
         <v>428</v>
       </c>
@@ -53699,9 +54475,9 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.86328125" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="17.649999999999999">
@@ -53712,12 +54488,12 @@
     <row r="3" spans="2:2">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" ht="13.9">
       <c r="B4" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" ht="13.9">
       <c r="B5" s="5" t="s">
         <v>227</v>
       </c>
@@ -53730,12 +54506,12 @@
     <row r="8" spans="2:2">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" ht="13.9">
       <c r="B9" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" ht="13.9">
       <c r="B10" s="5" t="s">
         <v>229</v>
       </c>
@@ -53748,7 +54524,7 @@
     <row r="13" spans="2:2">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>231</v>
       </c>
@@ -53756,7 +54532,7 @@
     <row r="15" spans="2:2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" ht="13.9">
       <c r="B16" s="5" t="s">
         <v>232</v>
       </c>
@@ -53769,12 +54545,12 @@
     <row r="19" spans="2:2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>234</v>
       </c>
@@ -53787,12 +54563,12 @@
     <row r="24" spans="2:2">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" ht="13.9">
       <c r="B25" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" ht="13.9">
       <c r="B26" s="5" t="s">
         <v>236</v>
       </c>
@@ -53805,7 +54581,7 @@
     <row r="29" spans="2:2">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" ht="13.9">
       <c r="B30" s="5" t="s">
         <v>237</v>
       </c>
@@ -53813,7 +54589,7 @@
     <row r="31" spans="2:2">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" ht="13.9">
       <c r="B32" s="5" t="s">
         <v>238</v>
       </c>
@@ -53826,7 +54602,7 @@
     <row r="35" spans="2:2">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>239</v>
       </c>
@@ -53834,7 +54610,7 @@
     <row r="37" spans="2:2">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" ht="13.9">
       <c r="B38" s="5" t="s">
         <v>240</v>
       </c>
@@ -53847,7 +54623,7 @@
     <row r="41" spans="2:2">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" ht="13.9">
       <c r="B42" s="5" t="s">
         <v>241</v>
       </c>
@@ -53855,7 +54631,7 @@
     <row r="43" spans="2:2">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" ht="13.9">
       <c r="B44" s="5" t="s">
         <v>242</v>
       </c>
@@ -53868,7 +54644,7 @@
     <row r="47" spans="2:2">
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" ht="13.9">
       <c r="B48" s="5" t="s">
         <v>243</v>
       </c>
@@ -53876,7 +54652,7 @@
     <row r="49" spans="2:2">
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" ht="13.9">
       <c r="B50" s="5" t="s">
         <v>244</v>
       </c>
@@ -53889,7 +54665,7 @@
     <row r="53" spans="2:2">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" ht="13.9">
       <c r="B54" s="5" t="s">
         <v>245</v>
       </c>
@@ -53897,7 +54673,7 @@
     <row r="55" spans="2:2">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" ht="13.9">
       <c r="B56" s="5" t="s">
         <v>246</v>
       </c>
@@ -53910,7 +54686,7 @@
     <row r="59" spans="2:2">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" ht="13.9">
       <c r="B60" s="5" t="s">
         <v>247</v>
       </c>
@@ -53918,7 +54694,7 @@
     <row r="61" spans="2:2">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" ht="13.9">
       <c r="B62" s="5" t="s">
         <v>248</v>
       </c>
@@ -53937,23 +54713,23 @@
       <selection activeCell="C3" sqref="C3:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.265625" customWidth="1"/>
-    <col min="15" max="15" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.0625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.25" customWidth="1"/>
+    <col min="15" max="15" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -53994,7 +54770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickBot="1">
+    <row r="2" spans="1:16" ht="13.9" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -54654,7 +55430,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.65" thickBot="1">
+    <row r="17" spans="1:13" ht="13.9" thickBot="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -54837,11 +55613,11 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" customWidth="1"/>
+    <col min="1" max="1" width="2.9375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.06640625" customWidth="1"/>
+    <col min="3" max="3" width="5.0625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -54891,10 +55667,10 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.46484375" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.4375" customWidth="1"/>
+    <col min="2" max="2" width="7.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
